--- a/media/template/ml_products_upload_ template.xlsx
+++ b/media/template/ml_products_upload_ template.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9A2F4-7592-F345-A6A6-612D4722C47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AEF880-E352-6647-A93A-0E973BFB9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41240" yWindow="4480" windowWidth="25780" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="25860" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上传模板" sheetId="1" r:id="rId1"/>
     <sheet name="模板说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>*SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,13 +164,81 @@
   <si>
     <t>*UPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone protector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三星S23U金属壳-炫彩 +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1分体镜头炫彩 </t>
+    </r>
+  </si>
+  <si>
+    <t>752140919505</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(范例)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MD2122</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX店铺4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,6 +265,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -205,17 +318,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -517,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -613,6 +741,69 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:24" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1818142250</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>4202321000</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED5185-2F30-B841-A2E8-1A04710FFA46}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -680,6 +871,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/template/ml_products_upload_ template.xlsx
+++ b/media/template/ml_products_upload_ template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Downloads/new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AEF880-E352-6647-A93A-0E973BFB9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C016CEC-CD34-5E4B-B4D2-56EB99DADF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="760" windowWidth="25860" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>*SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>MX店铺3</t>
-  </si>
-  <si>
-    <t>*UPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机壳</t>
@@ -230,6 +226,52 @@
   <si>
     <t>MX店铺4</t>
   </si>
+  <si>
+    <r>
+      <t>*UPC(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美客多必填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA店铺1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA店铺2</t>
+  </si>
+  <si>
+    <t>SA店铺3</t>
+  </si>
+  <si>
+    <t>SA店铺4</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,6 +341,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -648,7 +697,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -675,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -743,13 +792,13 @@
     </row>
     <row r="2" spans="1:24" ht="16">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="5">
         <v>1818142250</v>
@@ -782,25 +831,25 @@
         <v>4202321000</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R2">
         <v>6</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="V2" s="7"/>
     </row>
@@ -814,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED5185-2F30-B841-A2E8-1A04710FFA46}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -851,6 +900,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>5</v>
@@ -873,7 +930,27 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/media/template/ml_products_upload_ template.xlsx
+++ b/media/template/ml_products_upload_ template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Downloads/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Downloads/未命名文件夹/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C016CEC-CD34-5E4B-B4D2-56EB99DADF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F428A-CA68-5A40-B3E7-6259792B92D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="25860" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="760" windowWidth="25020" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上传模板" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>*SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,9 +198,6 @@
       </rPr>
       <t xml:space="preserve"> 1分体镜头炫彩 </t>
     </r>
-  </si>
-  <si>
-    <t>752140919505</t>
   </si>
   <si>
     <r>
@@ -271,6 +268,43 @@
   </si>
   <si>
     <t>SA店铺4</t>
+  </si>
+  <si>
+    <t>RU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU店铺1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU店铺2</t>
+  </si>
+  <si>
+    <t>RU店铺3</t>
+  </si>
+  <si>
+    <t>RU店铺4</t>
+  </si>
+  <si>
+    <t>是否带电 1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否液体 1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPC码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 AUTO_CREATE 可自动从UPC池申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -371,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,6 +422,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -711,12 +754,13 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="93.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="50" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" customWidth="1"/>
+    <col min="22" max="23" width="14.6640625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="93.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -780,26 +824,30 @@
       <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="5">
         <v>1818142250</v>
       </c>
@@ -851,7 +899,13 @@
       <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -863,28 +917,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED5185-2F30-B841-A2E8-1A04710FFA46}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -892,7 +955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -900,57 +963,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
